--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1CB7478-5463-2D45-AFFA-667F7048519D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474C695-A7FA-A74A-B08F-E68C597E7FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="59">
   <si>
     <t>Interpretation</t>
   </si>
@@ -136,6 +136,78 @@
   </si>
   <si>
     <t>addi</t>
+  </si>
+  <si>
+    <t>lw $rt, imm($rs)</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>Getchar all loads (A-G, EOF, H)</t>
+  </si>
+  <si>
+    <t>add $rd, $rs, $rt</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>GETCHAR1</t>
+  </si>
+  <si>
+    <t>lh $rt, imm($rs)</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>lhu $rt, imm($rs)</t>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>lb $rt, imm($rs)</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>Getchar all unsigned loads</t>
+  </si>
+  <si>
+    <t>GETCHAR2</t>
+  </si>
+  <si>
+    <t>Putchar aligned &amp; unaligned, X NULL X NULL X</t>
+  </si>
+  <si>
+    <t>sh $rt, imm($rs)</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>PUTCHAR1</t>
+  </si>
+  <si>
+    <t>Store and load -1</t>
+  </si>
+  <si>
+    <t>SB/LB1</t>
+  </si>
+  <si>
+    <t>Load out of bounds</t>
+  </si>
+  <si>
+    <t>LB2</t>
+  </si>
+  <si>
+    <t>Store and load unsigned 255</t>
+  </si>
+  <si>
+    <t>LBU1</t>
   </si>
 </sst>
 </file>
@@ -530,13 +602,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -571,222 +648,271 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8192</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5">
-        <v>255</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>8192</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>65535</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15">
-        <v>32769</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -795,27 +921,21 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -823,57 +943,81 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -881,16 +1025,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
@@ -910,8 +1044,6 @@
       <c r="F27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -924,55 +1056,61 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>8192</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>65535</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30">
-        <v>32769</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -981,24 +1119,24 @@
         <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -1007,82 +1145,1318 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>12288</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>65535</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>65535</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>65535</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>65535</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B110" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B111" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>65535</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B127" t="s">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B128" t="s">
         <v>18</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B129" t="s">
         <v>21</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
         <v>0</v>
       </c>
     </row>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474C695-A7FA-A74A-B08F-E68C597E7FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A1883-3E22-0943-8A87-DF3FA83B237D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="66">
   <si>
     <t>Interpretation</t>
   </si>
@@ -208,6 +208,27 @@
   </si>
   <si>
     <t>LBU1</t>
+  </si>
+  <si>
+    <t>Load unsigned out of bounds</t>
+  </si>
+  <si>
+    <t>Load bytes 1-4</t>
+  </si>
+  <si>
+    <t>Load bytes 2-5</t>
+  </si>
+  <si>
+    <t>LWLLWR3</t>
+  </si>
+  <si>
+    <t>Load bytes 3-6</t>
+  </si>
+  <si>
+    <t>Normal load word</t>
+  </si>
+  <si>
+    <t>LWLLWR4</t>
   </si>
 </sst>
 </file>
@@ -602,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1611,6 +1632,15 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
@@ -1618,14 +1648,37 @@
         <v>255</v>
       </c>
     </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67">
+        <v>21</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
         <v>0</v>
       </c>
     </row>
@@ -1646,20 +1699,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
     <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
@@ -1757,6 +1796,21 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
       <c r="G77" t="s">
         <v>19</v>
       </c>
@@ -1912,6 +1966,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
     <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
@@ -1936,70 +2007,70 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>8192</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95">
-        <v>65535</v>
+        <v>3</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H95" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -2010,12 +2081,18 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
@@ -2026,110 +2103,111 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>20</v>
-      </c>
-      <c r="B99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
+      <c r="H99" s="5"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>22</v>
-      </c>
+      <c r="H100" s="5"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>22</v>
-      </c>
+      <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>8192</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>8192</v>
+        <v>65535</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>65535</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>10</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>32769</v>
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2143,47 +2221,41 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H108" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109">
-        <v>4</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -2192,34 +2264,34 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112">
+        <v>21</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
         <v>0</v>
       </c>
     </row>
@@ -2239,31 +2311,22 @@
       <c r="F113">
         <v>0</v>
       </c>
+      <c r="H113" s="5"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>22</v>
-      </c>
+      <c r="H114" s="5"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>22</v>
-      </c>
+      <c r="H115" s="5"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>22</v>
-      </c>
+      <c r="H116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>22</v>
-      </c>
+      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>22</v>
-      </c>
+      <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -2320,6 +2383,9 @@
       <c r="G121" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H121" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -2378,7 +2444,7 @@
         <v>19</v>
       </c>
       <c r="H124" s="5">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -2395,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -2412,38 +2478,38 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C127">
-        <v>2</v>
-      </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -2457,6 +2523,472 @@
         <v>0</v>
       </c>
       <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>65535</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+      <c r="E138">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>65535</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>26</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" t="s">
+        <v>21</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
         <v>0</v>
       </c>
     </row>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A1883-3E22-0943-8A87-DF3FA83B237D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78796C8F-9D54-1A41-809B-0DC0766EC1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="72">
   <si>
     <t>Interpretation</t>
   </si>
@@ -174,9 +174,6 @@
     <t>lb</t>
   </si>
   <si>
-    <t>Getchar all unsigned loads</t>
-  </si>
-  <si>
     <t>GETCHAR2</t>
   </si>
   <si>
@@ -229,6 +226,27 @@
   </si>
   <si>
     <t>LWLLWR4</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LH</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LHU</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LB</t>
+  </si>
+  <si>
+    <t>Getchar unaligned LBU</t>
+  </si>
+  <si>
+    <t>GETCHAR3</t>
+  </si>
+  <si>
+    <t>GETCHAR4</t>
+  </si>
+  <si>
+    <t>GETCHAR5</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K191" sqref="K191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -928,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -945,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -962,7 +980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -979,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1007,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1041,12 +1059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1100,64 +1118,88 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -1165,121 +1207,208 @@
       <c r="H32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
+      <c r="J33" t="s">
         <v>46</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="s">
+      <c r="J34" t="s">
         <v>39</v>
       </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>12288</v>
+      </c>
+      <c r="I36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="J36" t="s">
         <v>39</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="J37" t="s">
         <v>34</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1295,1032 +1424,1082 @@
       <c r="F40">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>12288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>12288</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>65535</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="5">
-        <v>255</v>
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>12288</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>65535</v>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>45</v>
-      </c>
-      <c r="B74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74">
-        <v>3</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>20</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="5">
-        <v>245</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>8192</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>65535</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>8192</v>
+        <v>18</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>65535</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>3</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>17</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B93" t="s">
         <v>18</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="5">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="C93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>65535</v>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="5">
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="5">
-        <v>255</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H99" s="5"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H100" s="5"/>
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H101" s="5"/>
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>8192</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H102" s="5"/>
-    </row>
-    <row r="103" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>65535</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>8192</v>
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105">
-        <v>65535</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" t="s">
-        <v>64</v>
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="5">
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>32769</v>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B108" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G108" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="5">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" t="s">
-        <v>29</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>17</v>
-      </c>
-      <c r="B111" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>20</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>21</v>
       </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="H113" s="5"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H115" s="5"/>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="5"/>
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="5">
+        <v>255</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H117" s="5"/>
@@ -2328,64 +2507,33 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="2" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121">
-        <v>65535</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" t="s">
-        <v>60</v>
-      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -2395,64 +2543,55 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>32769</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>32</v>
+        <v>65535</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124">
-        <v>4</v>
-      </c>
-      <c r="G124" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" s="5">
-        <v>128</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -2461,150 +2600,154 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>4</v>
       </c>
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="5">
+        <v>255</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>20</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>21</v>
       </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="H129" s="5"/>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>22</v>
-      </c>
+      <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>22</v>
-      </c>
+      <c r="H133" s="5"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" t="s">
-        <v>24</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137">
-        <v>65535</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" t="s">
-        <v>61</v>
-      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -2614,64 +2757,55 @@
         <v>7</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>32769</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>62</v>
+        <v>65535</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D140">
         <v>3</v>
       </c>
       <c r="E140">
-        <v>4</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140" s="5">
-        <v>1</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2680,35 +2814,47 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B142" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="5">
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -2719,29 +2865,29 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="C145">
         <v>0</v>
       </c>
     </row>
@@ -2764,161 +2910,121 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>6</v>
-      </c>
-      <c r="B151" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>8192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" t="s">
-        <v>24</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152">
-        <v>65535</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153">
-        <v>32769</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>65</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>4</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
-      <c r="H155" s="5">
-        <v>1</v>
+        <v>65535</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>29</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -2927,68 +3033,361 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>17</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>20</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B163" t="s">
         <v>21</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>20</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B164" t="s">
         <v>21</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-      <c r="F161">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>65535</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+      <c r="E171">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>25</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>25</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>19</v>
+      </c>
+      <c r="H173" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
         <v>0</v>
       </c>
     </row>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78796C8F-9D54-1A41-809B-0DC0766EC1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44284C69-616C-2C4F-9427-7702D4B17D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="84">
   <si>
     <t>Interpretation</t>
   </si>
@@ -189,27 +192,15 @@
     <t>PUTCHAR1</t>
   </si>
   <si>
-    <t>Store and load -1</t>
-  </si>
-  <si>
     <t>SB/LB1</t>
   </si>
   <si>
-    <t>Load out of bounds</t>
-  </si>
-  <si>
     <t>LB2</t>
   </si>
   <si>
-    <t>Store and load unsigned 255</t>
-  </si>
-  <si>
     <t>LBU1</t>
   </si>
   <si>
-    <t>Load unsigned out of bounds</t>
-  </si>
-  <si>
     <t>Load bytes 1-4</t>
   </si>
   <si>
@@ -247,6 +238,54 @@
   </si>
   <si>
     <t>GETCHAR5</t>
+  </si>
+  <si>
+    <t>Store and load CD (-51)</t>
+  </si>
+  <si>
+    <t>Store and load ABCD (-21555)</t>
+  </si>
+  <si>
+    <t>SH/LH1</t>
+  </si>
+  <si>
+    <t>Store and load CD (205)</t>
+  </si>
+  <si>
+    <t>LB out of bounds</t>
+  </si>
+  <si>
+    <t>LBU out of bounds</t>
+  </si>
+  <si>
+    <t>LH out of bounds</t>
+  </si>
+  <si>
+    <t>LH2</t>
+  </si>
+  <si>
+    <t>LH3</t>
+  </si>
+  <si>
+    <t>LH unaligned</t>
+  </si>
+  <si>
+    <t>Store and load ABCD (43981)</t>
+  </si>
+  <si>
+    <t>LHU1</t>
+  </si>
+  <si>
+    <t>LHU out of bounds</t>
+  </si>
+  <si>
+    <t>LHU2</t>
+  </si>
+  <si>
+    <t>LHU unaligned</t>
+  </si>
+  <si>
+    <t>LHU3</t>
   </si>
 </sst>
 </file>
@@ -342,6 +381,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Generator"/>
+      <sheetName val="Archives3"/>
+      <sheetName val="Archives2"/>
+      <sheetName val="Archives"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ExportBinary"/>
+      <definedName name="GenerateBinary"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K191" sqref="K191"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
         <v>38</v>
@@ -1356,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
         <v>33</v>
@@ -1405,7 +1467,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1502,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -1536,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -1633,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -1667,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -1969,50 +2031,47 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80">
-        <v>65535</v>
+        <v>43981</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2027,40 +2086,40 @@
         <v>15</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
       </c>
       <c r="H83" s="5">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
+        <v>18</v>
+      </c>
+      <c r="C84">
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -2191,7 +2250,7 @@
         <v>15</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -2270,50 +2329,47 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102">
-        <v>65535</v>
+        <v>43981</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2328,40 +2384,40 @@
         <v>15</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
       </c>
       <c r="G105" t="s">
         <v>19</v>
       </c>
       <c r="H105" s="5">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="C106">
         <v>0</v>
       </c>
     </row>
@@ -2382,6 +2438,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
     <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
@@ -2441,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -2569,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="H123" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -2783,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -3002,7 +3075,7 @@
         <v>10</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -3039,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -3232,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="H170" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -3269,7 +3342,7 @@
         <v>15</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -3346,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -3357,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -3374,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -3389,6 +3462,796 @@
       </c>
       <c r="F179">
         <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>43981</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>50</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" t="s">
+        <v>42</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="G187" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" t="s">
+        <v>42</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="G196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>41</v>
+      </c>
+      <c r="B204" t="s">
+        <v>42</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204">
+        <v>3</v>
+      </c>
+      <c r="G204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213">
+        <v>43981</v>
+      </c>
+      <c r="G213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H213" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>43</v>
+      </c>
+      <c r="B216" t="s">
+        <v>44</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="G216" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>20</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>43</v>
+      </c>
+      <c r="B224" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="G224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>20</v>
+      </c>
+      <c r="B227" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>43</v>
+      </c>
+      <c r="B232" t="s">
+        <v>44</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235" t="s">
+        <v>19</v>
+      </c>
+      <c r="H235" s="5">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44284C69-616C-2C4F-9427-7702D4B17D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE04BF-C564-3941-BEA4-EE9452923A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="100">
   <si>
     <t>Interpretation</t>
   </si>
@@ -286,6 +286,54 @@
   </si>
   <si>
     <t>LHU3</t>
+  </si>
+  <si>
+    <t>SW/LW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>Store and load ABCDABCD (-1412584499)</t>
+  </si>
+  <si>
+    <t>LW out of bounds</t>
+  </si>
+  <si>
+    <t>LW2</t>
+  </si>
+  <si>
+    <t>LW3</t>
+  </si>
+  <si>
+    <t>LW unaligned</t>
+  </si>
+  <si>
+    <t>SW out of bounds</t>
+  </si>
+  <si>
+    <t>SW unaligned</t>
+  </si>
+  <si>
+    <t>SB out of bounds</t>
+  </si>
+  <si>
+    <t>SB2</t>
+  </si>
+  <si>
+    <t>SH out of bounds</t>
+  </si>
+  <si>
+    <t>SH unaligned</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>SH2</t>
+  </si>
+  <si>
+    <t>SW1</t>
   </si>
 </sst>
 </file>
@@ -703,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="H307" sqref="H307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4254,6 +4302,980 @@
         <v>245</v>
       </c>
     </row>
+    <row r="238" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>43981</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H240" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>8</v>
+      </c>
+      <c r="B241" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>35</v>
+      </c>
+      <c r="B243" t="s">
+        <v>36</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
+        <v>19</v>
+      </c>
+      <c r="H243" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>17</v>
+      </c>
+      <c r="B244" t="s">
+        <v>18</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>20</v>
+      </c>
+      <c r="B246" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>2</v>
+      </c>
+      <c r="E250">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>35</v>
+      </c>
+      <c r="B251" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H251" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>20</v>
+      </c>
+      <c r="B253" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>20</v>
+      </c>
+      <c r="B254" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>35</v>
+      </c>
+      <c r="B259" t="s">
+        <v>36</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H259" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261" t="s">
+        <v>15</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262" t="s">
+        <v>19</v>
+      </c>
+      <c r="H262" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="G267" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H267" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>20</v>
+      </c>
+      <c r="B269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269" t="s">
+        <v>15</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>20</v>
+      </c>
+      <c r="B270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270" t="s">
+        <v>19</v>
+      </c>
+      <c r="H270" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" t="s">
+        <v>50</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H275" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="s">
+        <v>15</v>
+      </c>
+      <c r="H277" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278" t="s">
+        <v>19</v>
+      </c>
+      <c r="H278" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>49</v>
+      </c>
+      <c r="B283" t="s">
+        <v>50</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>2</v>
+      </c>
+      <c r="E283">
+        <v>3</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+      <c r="B285" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285" t="s">
+        <v>15</v>
+      </c>
+      <c r="H285" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286" t="s">
+        <v>19</v>
+      </c>
+      <c r="H286" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" t="s">
+        <v>26</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="G291" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H291" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293" t="s">
+        <v>21</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294" t="s">
+        <v>21</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
+        <v>19</v>
+      </c>
+      <c r="H294" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>25</v>
+      </c>
+      <c r="B299" t="s">
+        <v>26</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H299" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>17</v>
+      </c>
+      <c r="B300" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>20</v>
+      </c>
+      <c r="B301" t="s">
+        <v>21</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>15</v>
+      </c>
+      <c r="H301" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>20</v>
+      </c>
+      <c r="B302" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302" t="s">
+        <v>19</v>
+      </c>
+      <c r="H302" s="5">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44284C69-616C-2C4F-9427-7702D4B17D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451399B-0D73-4959-9E95-E9DF90C58242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -381,29 +378,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Generator"/>
-      <sheetName val="Archives3"/>
-      <sheetName val="Archives2"/>
-      <sheetName val="Archives"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ExportBinary"/>
-      <definedName name="GenerateBinary"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,20 +677,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H239" sqref="H239"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +713,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +727,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -775,7 +750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -792,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -815,7 +790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -838,7 +813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -855,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -872,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -889,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -906,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -923,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -940,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -957,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -974,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -991,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1025,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1042,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1087,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1121,12 +1096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1135,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1198,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1215,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1247,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>38</v>
       </c>
@@ -1334,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1398,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1453,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1493,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1544,7 +1519,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1567,7 +1542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1601,7 +1576,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1641,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1650,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1732,7 +1707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1755,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1769,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1811,7 +1786,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1831,7 +1806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +1846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1894,7 +1869,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1911,7 +1886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1928,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1939,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -1973,27 +1948,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2015,7 +1990,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +2004,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2041,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2089,7 +2064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2112,7 +2087,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2123,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2140,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2157,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2154,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2171,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -2230,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2253,7 +2228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2276,22 +2251,22 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2288,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2327,7 +2302,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2347,7 +2322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2364,7 +2339,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +2385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -2421,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2438,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -2477,7 +2452,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2494,7 +2469,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -2528,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -2574,19 +2549,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2583,7 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2622,7 +2597,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2645,7 +2620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2659,7 +2634,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -2682,7 +2657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -2705,7 +2680,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -2722,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -2750,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -2767,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -2785,22 +2760,22 @@
       </c>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2797,7 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2811,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -2859,7 +2834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2873,7 +2848,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>25</v>
       </c>
@@ -2896,7 +2871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>25</v>
       </c>
@@ -2919,7 +2894,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -2936,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -2953,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2964,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -2981,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -2999,27 +2974,27 @@
       </c>
       <c r="H147" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3016,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3030,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -3078,7 +3053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -3092,7 +3067,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>25</v>
       </c>
@@ -3115,7 +3090,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>25</v>
       </c>
@@ -3138,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -3155,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -3172,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>33</v>
       </c>
@@ -3189,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3217,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -3234,22 +3209,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -3271,7 +3246,7 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -3285,7 +3260,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>23</v>
       </c>
@@ -3308,7 +3283,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3297,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>25</v>
       </c>
@@ -3345,7 +3320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>25</v>
       </c>
@@ -3368,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>28</v>
       </c>
@@ -3385,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -3402,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -3430,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -3447,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -3464,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +3461,7 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3475,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -3520,7 +3495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -3537,7 +3512,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -3560,7 +3535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>41</v>
       </c>
@@ -3583,7 +3558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -3628,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -3665,7 +3640,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -3688,7 +3663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -3745,7 +3720,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -3779,7 +3754,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -3802,7 +3777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -3813,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -3836,7 +3811,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -3859,7 +3834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
@@ -3881,7 +3856,7 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -3895,7 +3870,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -3915,7 +3890,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -3932,7 +3907,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>49</v>
       </c>
@@ -3955,7 +3930,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>43</v>
       </c>
@@ -3978,7 +3953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -3989,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -4006,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -4023,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -4060,7 +4035,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>43</v>
       </c>
@@ -4083,7 +4058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -4094,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -4117,7 +4092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -4140,7 +4115,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -4160,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4149,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>43</v>
       </c>
@@ -4197,7 +4172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -4208,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -4231,7 +4206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>20</v>
       </c>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AE04BF-C564-3941-BEA4-EE9452923A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6420333-D081-9E40-A77C-9516F9EB908E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16760" windowHeight="20540" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="104">
   <si>
     <t>Interpretation</t>
   </si>
@@ -334,6 +331,18 @@
   </si>
   <si>
     <t>SW1</t>
+  </si>
+  <si>
+    <t>LWL out of bounds</t>
+  </si>
+  <si>
+    <t>LWL1</t>
+  </si>
+  <si>
+    <t>LWR out of bounds</t>
+  </si>
+  <si>
+    <t>LWLR</t>
   </si>
 </sst>
 </file>
@@ -429,29 +438,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Generator"/>
-      <sheetName val="Archives3"/>
-      <sheetName val="Archives2"/>
-      <sheetName val="Archives"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="ExportBinary"/>
-      <definedName name="GenerateBinary"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="H307" sqref="H307"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2625,286 +2611,305 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H118" s="5"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H119" s="5"/>
+    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>43981</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>8192</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
-        <v>65535</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
-        <v>32769</v>
+        <v>2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="5">
-        <v>255</v>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>30</v>
-      </c>
-      <c r="B128" t="s">
-        <v>31</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="F131" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>17</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B134" t="s">
         <v>18</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" t="s">
-        <v>21</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>20</v>
-      </c>
-      <c r="B131" t="s">
-        <v>21</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="H131" s="5"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H132" s="5"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H133" s="5"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H134" s="5"/>
+      <c r="C134">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H135" s="5"/>
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139">
-        <v>65535</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -2915,18 +2920,18 @@
         <v>7</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>32769</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -2935,306 +2940,294 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>3</v>
-      </c>
-      <c r="E142">
-        <v>4</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
-      <c r="H142" s="5">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>29</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>17</v>
-      </c>
-      <c r="B145" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="H147" s="5"/>
+      <c r="F148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>8192</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>43981</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>43981</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153" s="5">
+        <v>35</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>8192</v>
+        <v>18</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>65535</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E156">
-        <v>32769</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B157" t="s">
-        <v>26</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="G157" t="s">
-        <v>15</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>25</v>
-      </c>
-      <c r="B158" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>3</v>
-      </c>
-      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G158" t="s">
-        <v>19</v>
-      </c>
-      <c r="H158" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" t="s">
-        <v>29</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="E159">
-        <v>2</v>
+      <c r="F159" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160">
-        <v>5</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B161" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -3264,6 +3257,12 @@
       <c r="F163">
         <v>0</v>
       </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -3281,381 +3280,359 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="2" t="s">
+      <c r="G164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>8192</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>8192</v>
+        <v>3</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H169" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C170">
         <v>0</v>
-      </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170">
-        <v>65535</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>32769</v>
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>26</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
       <c r="G172" t="s">
-        <v>15</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>25</v>
-      </c>
-      <c r="B173" t="s">
-        <v>26</v>
-      </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173">
-        <v>3</v>
-      </c>
-      <c r="E173">
+        <v>19</v>
+      </c>
+      <c r="H172" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G173" t="s">
-        <v>19</v>
-      </c>
-      <c r="H173" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>28</v>
-      </c>
-      <c r="B174" t="s">
-        <v>29</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>30</v>
-      </c>
-      <c r="B175" t="s">
-        <v>31</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175">
-        <v>2</v>
-      </c>
-      <c r="E175">
-        <v>6</v>
-      </c>
+      <c r="F175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>43981</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H177" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
+        <v>43981</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>19</v>
+      </c>
+      <c r="H180" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-      <c r="E184">
-        <v>43981</v>
-      </c>
-      <c r="G184" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H184" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" t="s">
-        <v>9</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185">
-        <v>43981</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>49</v>
-      </c>
-      <c r="B186" t="s">
-        <v>50</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186">
-        <v>2</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187">
         <v>2</v>
       </c>
       <c r="E187">
-        <v>2</v>
-      </c>
-      <c r="G187" t="s">
-        <v>19</v>
-      </c>
-      <c r="H187" s="5">
-        <v>35</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>21</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-      <c r="F189">
+        <v>18</v>
+      </c>
+      <c r="C189">
         <v>0</v>
       </c>
     </row>
@@ -3675,6 +3652,35 @@
       <c r="F190">
         <v>0</v>
       </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="5">
+        <v>245</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -3698,27 +3704,24 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>65535</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -3727,13 +3730,13 @@
         <v>2</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H196" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -3767,7 +3770,7 @@
         <v>15</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -3815,24 +3818,27 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>8192</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -3841,13 +3847,13 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H204" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -3881,7 +3887,7 @@
         <v>15</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -3907,1095 +3913,1096 @@
         <v>245</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="2" t="s">
+    <row r="210" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>65535</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>8192</v>
+        <v>0</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213">
-        <v>2</v>
-      </c>
-      <c r="E213">
-        <v>43981</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H213" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>43981</v>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>50</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>43</v>
-      </c>
-      <c r="B216" t="s">
-        <v>44</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216">
-        <v>2</v>
-      </c>
-      <c r="G216" t="s">
         <v>19</v>
       </c>
-      <c r="H216" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>17</v>
-      </c>
-      <c r="B217" t="s">
-        <v>18</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>20</v>
-      </c>
-      <c r="B218" t="s">
-        <v>21</v>
-      </c>
-      <c r="D218">
-        <v>0</v>
-      </c>
-      <c r="E218">
-        <v>0</v>
-      </c>
-      <c r="F218">
-        <v>0</v>
+      <c r="H215" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>5</v>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" t="s">
+        <v>50</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H220" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>20</v>
+      </c>
+      <c r="B222" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>43</v>
-      </c>
-      <c r="B224" t="s">
-        <v>44</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224">
-        <v>2</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H224" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>17</v>
-      </c>
-      <c r="B225" t="s">
-        <v>18</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>20</v>
-      </c>
-      <c r="B226" t="s">
-        <v>21</v>
-      </c>
-      <c r="D226">
-        <v>0</v>
-      </c>
-      <c r="E226">
-        <v>0</v>
-      </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-      <c r="G226" t="s">
-        <v>15</v>
-      </c>
-      <c r="H226" s="5" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227" t="s">
-        <v>19</v>
-      </c>
-      <c r="H227" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F230" s="2" t="s">
-        <v>5</v>
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H228" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>17</v>
+      </c>
+      <c r="B229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>20</v>
+      </c>
+      <c r="B230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>43</v>
-      </c>
-      <c r="B232" t="s">
-        <v>44</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>2</v>
-      </c>
-      <c r="E232">
-        <v>3</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H232" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>17</v>
-      </c>
-      <c r="B233" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234" t="s">
-        <v>21</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
-      </c>
-      <c r="E234">
-        <v>0</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234" t="s">
-        <v>15</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
-      </c>
-      <c r="H235" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="G236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H236" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>20</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>6</v>
-      </c>
-      <c r="B240" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240">
-        <v>43981</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H240" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>8</v>
-      </c>
-      <c r="B241" t="s">
-        <v>9</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241">
-        <v>43981</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>25</v>
-      </c>
-      <c r="B242" t="s">
-        <v>26</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>2</v>
-      </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="s">
-        <v>15</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>36</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="s">
-        <v>19</v>
-      </c>
-      <c r="H243" s="5">
-        <v>205</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C244">
         <v>0</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244">
+        <v>65535</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H244" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
-      </c>
-      <c r="F245">
-        <v>0</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="2" t="s">
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" t="s">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+      <c r="E247">
         <v>4</v>
       </c>
-      <c r="F249" s="2" t="s">
-        <v>5</v>
+      <c r="G247" t="s">
+        <v>19</v>
+      </c>
+      <c r="H247" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>28</v>
+      </c>
+      <c r="B248" t="s">
+        <v>29</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C250">
         <v>0</v>
-      </c>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250">
-        <v>65535</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B251" t="s">
-        <v>36</v>
-      </c>
-      <c r="C251">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="G251" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H251" t="s">
-        <v>87</v>
+      <c r="F251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="H252" s="5"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>20</v>
-      </c>
-      <c r="B253" t="s">
-        <v>21</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-      <c r="G253" t="s">
-        <v>15</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="H253" s="5"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>20</v>
-      </c>
-      <c r="B254" t="s">
-        <v>21</v>
-      </c>
-      <c r="D254">
-        <v>0</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-      <c r="G254" t="s">
-        <v>19</v>
-      </c>
-      <c r="H254" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E257" s="2" t="s">
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F257" s="2" t="s">
+      <c r="F258" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>6</v>
-      </c>
-      <c r="B258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
-        <v>8192</v>
-      </c>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>1</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H259" t="s">
-        <v>90</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C260">
         <v>0</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260">
+        <v>65535</v>
+      </c>
+      <c r="G260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H260" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E261">
-        <v>0</v>
-      </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-      <c r="G261" t="s">
-        <v>15</v>
-      </c>
-      <c r="H261" s="5" t="s">
-        <v>89</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B262" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
       <c r="G262" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>25</v>
+      </c>
+      <c r="B263" t="s">
+        <v>26</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263">
+        <v>4</v>
+      </c>
+      <c r="G263" t="s">
         <v>19</v>
       </c>
-      <c r="H262" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="2" t="s">
+      <c r="H263" s="5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>28</v>
+      </c>
+      <c r="B264" t="s">
+        <v>29</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" t="s">
+        <v>31</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265">
         <v>4</v>
-      </c>
-      <c r="F265" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C266">
         <v>0</v>
-      </c>
-      <c r="D266">
-        <v>2</v>
-      </c>
-      <c r="E266">
-        <v>65535</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
-      </c>
-      <c r="C267">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="G267" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H267" t="s">
-        <v>93</v>
+      <c r="F267">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>20</v>
-      </c>
-      <c r="B269" t="s">
-        <v>21</v>
-      </c>
-      <c r="D269">
-        <v>0</v>
-      </c>
-      <c r="E269">
-        <v>0</v>
-      </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-      <c r="G269" t="s">
-        <v>15</v>
-      </c>
-      <c r="H269" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="H268" s="5"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>20</v>
-      </c>
-      <c r="B270" t="s">
-        <v>21</v>
-      </c>
-      <c r="D270">
-        <v>0</v>
-      </c>
-      <c r="E270">
-        <v>0</v>
-      </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
-      </c>
-      <c r="H270" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E273" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="F274" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>8</v>
-      </c>
-      <c r="B274" t="s">
-        <v>9</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274">
-        <v>65535</v>
-      </c>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>50</v>
-      </c>
-      <c r="C275">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275">
-        <v>0</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H275" t="s">
-        <v>95</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B276" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C276">
         <v>0</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>65535</v>
+      </c>
+      <c r="G276" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H276" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="s">
-        <v>15</v>
-      </c>
-      <c r="H277" s="5" t="s">
-        <v>97</v>
+        <v>32769</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E278">
         <v>0</v>
       </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
       <c r="G278" t="s">
+        <v>15</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+      <c r="G279" t="s">
         <v>19</v>
       </c>
-      <c r="H278" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F281" s="2" t="s">
+      <c r="H279" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" t="s">
+        <v>29</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281">
         <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E282">
-        <v>8192</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B283" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C283">
-        <v>1</v>
-      </c>
-      <c r="D283">
-        <v>2</v>
-      </c>
-      <c r="E283">
-        <v>3</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H283" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>18</v>
-      </c>
-      <c r="C284">
+        <v>21</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
         <v>0</v>
       </c>
     </row>
@@ -5015,34 +5022,20 @@
       <c r="F285">
         <v>0</v>
       </c>
-      <c r="G285" t="s">
-        <v>15</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>20</v>
-      </c>
-      <c r="B286" t="s">
-        <v>21</v>
-      </c>
-      <c r="D286">
-        <v>0</v>
-      </c>
-      <c r="E286">
-        <v>0</v>
-      </c>
-      <c r="F286">
-        <v>0</v>
-      </c>
-      <c r="G286" t="s">
-        <v>19</v>
-      </c>
-      <c r="H286" s="5">
-        <v>245</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -5064,215 +5057,433 @@
       <c r="F289" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E290">
-        <v>65535</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B291" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
         <v>2</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>65535</v>
       </c>
       <c r="G291" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H291" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>18</v>
-      </c>
-      <c r="C292">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>32769</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B293" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293">
         <v>0</v>
       </c>
       <c r="G293" t="s">
         <v>15</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B294" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E294">
-        <v>0</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G294" t="s">
         <v>19</v>
       </c>
       <c r="H294" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E297" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>28</v>
+      </c>
+      <c r="B295" t="s">
+        <v>29</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" t="s">
+        <v>31</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>33</v>
+      </c>
+      <c r="B297" t="s">
+        <v>34</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298">
-        <v>1</v>
-      </c>
-      <c r="E298">
-        <v>8192</v>
+        <v>18</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B299" t="s">
-        <v>26</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E299">
-        <v>1</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H299" t="s">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300" t="s">
+        <v>21</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>8</v>
+      </c>
+      <c r="B304" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="G305" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H305" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>17</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B306" t="s">
         <v>18</v>
       </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>20</v>
-      </c>
-      <c r="B301" t="s">
-        <v>21</v>
-      </c>
-      <c r="D301">
-        <v>0</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301">
-        <v>0</v>
-      </c>
-      <c r="G301" t="s">
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+      <c r="B307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="s">
         <v>15</v>
       </c>
-      <c r="H301" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>20</v>
-      </c>
-      <c r="B302" t="s">
-        <v>21</v>
-      </c>
-      <c r="D302">
-        <v>0</v>
-      </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
-      <c r="G302" t="s">
+      <c r="H307" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308" t="s">
+        <v>21</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308" t="s">
         <v>19</v>
       </c>
-      <c r="H302" s="5">
+      <c r="H308" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>8</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="G313" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H313" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B314" t="s">
+        <v>18</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315" t="s">
+        <v>15</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>20</v>
+      </c>
+      <c r="B316" t="s">
+        <v>21</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316" t="s">
+        <v>19</v>
+      </c>
+      <c r="H316" s="5">
         <v>245</v>
       </c>
     </row>

--- a/More tests.xlsx
+++ b/More tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cwlroda/Documents/GitHub/mjnwlc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\C++\MipsSim\mjnwlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6420333-D081-9E40-A77C-9516F9EB908E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083959C-F9CF-43FE-9426-B9896439B814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16760" windowHeight="20540" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{366EE7B8-E327-E143-A054-62D4E4C18E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="104">
   <si>
     <t>Interpretation</t>
   </si>
@@ -342,7 +342,7 @@
     <t>LWR out of bounds</t>
   </si>
   <si>
-    <t>LWLR</t>
+    <t>LWR1</t>
   </si>
 </sst>
 </file>
@@ -737,20 +737,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F135B1A-28D0-BE4F-A6F6-A495B9CC6F9E}">
-  <dimension ref="A1:M316"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="H284" sqref="A275:H284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +773,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -786,7 +787,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -809,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -826,7 +827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -849,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -872,7 +873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -889,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -906,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -923,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -940,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -957,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -974,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -991,7 +992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1155,12 +1156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>38</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>12288</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2007,27 +2008,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2049,7 +2050,7 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +2231,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2310,22 +2311,22 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2348,7 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -2511,7 +2512,7 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -2608,10 +2609,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H117" s="5"/>
     </row>
-    <row r="119" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2634,7 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>49</v>
       </c>
@@ -2707,7 +2708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>41</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>41</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>0</v>
       </c>
@@ -3028,7 +3029,7 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>49</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>43</v>
       </c>
@@ -3122,10 +3123,10 @@
         <v>19</v>
       </c>
       <c r="H153" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>43</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3424,7 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>25</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>35</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>35</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>35</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>49</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>49</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>25</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +4398,7 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>25</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>28</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>30</v>
       </c>
@@ -4525,10 +4526,10 @@
         <v>2</v>
       </c>
       <c r="E249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -4556,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4574,22 +4575,22 @@
       </c>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H254" s="5"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H255" s="5"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H256" s="5"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4612,7 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>28</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>30</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -4788,27 +4789,27 @@
       </c>
       <c r="H268" s="5"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4831,7 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>32769</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -4961,35 +4962,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B282" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C282">
-        <v>2</v>
-      </c>
-      <c r="D282">
-        <v>2</v>
-      </c>
-      <c r="E282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B283" t="s">
-        <v>18</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5006,112 +5007,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>20</v>
-      </c>
-      <c r="B285" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285">
-        <v>0</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289" s="2" t="s">
+    <row r="288" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F289" s="2" t="s">
+      <c r="F288" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>65535</v>
+      </c>
+      <c r="G290" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H290" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>6</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>7</v>
       </c>
-      <c r="D290">
-        <v>1</v>
-      </c>
-      <c r="E290">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>23</v>
-      </c>
-      <c r="B291" t="s">
-        <v>24</v>
-      </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
       <c r="D291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E291">
-        <v>65535</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H291" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32769</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E292">
-        <v>32769</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G292" t="s">
+        <v>15</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>25</v>
       </c>
@@ -5122,368 +5129,345 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G293" t="s">
+        <v>19</v>
+      </c>
+      <c r="H293" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" t="s">
+        <v>29</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+      <c r="E295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>33</v>
+      </c>
+      <c r="B296" t="s">
+        <v>34</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298" t="s">
+        <v>21</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>8</v>
+      </c>
+      <c r="B303" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" t="s">
+        <v>29</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="G304" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H304" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" t="s">
+        <v>18</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>20</v>
+      </c>
+      <c r="B306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306" t="s">
         <v>15</v>
       </c>
-      <c r="H293" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>25</v>
-      </c>
-      <c r="B294" t="s">
-        <v>26</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294">
-        <v>3</v>
-      </c>
-      <c r="E294">
+      <c r="H306" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>20</v>
+      </c>
+      <c r="B307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" s="5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G294" t="s">
+      <c r="F310" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" t="s">
+        <v>31</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="G312" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H312" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313" t="s">
+        <v>18</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+      <c r="B314" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314" t="s">
+        <v>15</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" t="s">
+        <v>21</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315" t="s">
         <v>19</v>
       </c>
-      <c r="H294" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>28</v>
-      </c>
-      <c r="B295" t="s">
-        <v>29</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295">
-        <v>2</v>
-      </c>
-      <c r="E295">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>30</v>
-      </c>
-      <c r="B296" t="s">
-        <v>31</v>
-      </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296">
-        <v>2</v>
-      </c>
-      <c r="E296">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>33</v>
-      </c>
-      <c r="B297" t="s">
-        <v>34</v>
-      </c>
-      <c r="C297">
-        <v>2</v>
-      </c>
-      <c r="D297">
-        <v>2</v>
-      </c>
-      <c r="E297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>17</v>
-      </c>
-      <c r="B298" t="s">
-        <v>18</v>
-      </c>
-      <c r="C298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>20</v>
-      </c>
-      <c r="B299" t="s">
-        <v>21</v>
-      </c>
-      <c r="D299">
-        <v>0</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>20</v>
-      </c>
-      <c r="B300" t="s">
-        <v>21</v>
-      </c>
-      <c r="D300">
-        <v>0</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F303" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>8</v>
-      </c>
-      <c r="B304" t="s">
-        <v>9</v>
-      </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-      <c r="D304">
-        <v>2</v>
-      </c>
-      <c r="E304">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>28</v>
-      </c>
-      <c r="B305" t="s">
-        <v>29</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>2</v>
-      </c>
-      <c r="E305">
-        <v>2</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H305" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>17</v>
-      </c>
-      <c r="B306" t="s">
-        <v>18</v>
-      </c>
-      <c r="C306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>20</v>
-      </c>
-      <c r="B307" t="s">
-        <v>21</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
-      <c r="F307">
-        <v>0</v>
-      </c>
-      <c r="G307" t="s">
-        <v>15</v>
-      </c>
-      <c r="H307" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>20</v>
-      </c>
-      <c r="B308" t="s">
-        <v>21</v>
-      </c>
-      <c r="D308">
-        <v>0</v>
-      </c>
-      <c r="E308">
-        <v>0</v>
-      </c>
-      <c r="F308">
-        <v>0</v>
-      </c>
-      <c r="G308" t="s">
-        <v>19</v>
-      </c>
-      <c r="H308" s="5">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>8</v>
-      </c>
-      <c r="B312" t="s">
-        <v>9</v>
-      </c>
-      <c r="C312">
-        <v>0</v>
-      </c>
-      <c r="D312">
-        <v>2</v>
-      </c>
-      <c r="E312">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>30</v>
-      </c>
-      <c r="B313" t="s">
-        <v>31</v>
-      </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313">
-        <v>2</v>
-      </c>
-      <c r="E313">
-        <v>2</v>
-      </c>
-      <c r="G313" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H313" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>17</v>
-      </c>
-      <c r="B314" t="s">
-        <v>18</v>
-      </c>
-      <c r="C314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>20</v>
-      </c>
-      <c r="B315" t="s">
-        <v>21</v>
-      </c>
-      <c r="D315">
-        <v>0</v>
-      </c>
-      <c r="E315">
-        <v>0</v>
-      </c>
-      <c r="F315">
-        <v>0</v>
-      </c>
-      <c r="G315" t="s">
-        <v>15</v>
-      </c>
-      <c r="H315" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>20</v>
-      </c>
-      <c r="B316" t="s">
-        <v>21</v>
-      </c>
-      <c r="D316">
-        <v>0</v>
-      </c>
-      <c r="E316">
-        <v>0</v>
-      </c>
-      <c r="F316">
-        <v>0</v>
-      </c>
-      <c r="G316" t="s">
-        <v>19</v>
-      </c>
-      <c r="H316" s="5">
+      <c r="H315" s="5">
         <v>245</v>
       </c>
     </row>
